--- a/prediction_data_moodle.xlsx
+++ b/prediction_data_moodle.xlsx
@@ -549,13 +549,13 @@
         <v>19.7</v>
       </c>
       <c r="C3" t="n">
-        <v>21.65241127003474</v>
+        <v>21.39369419845</v>
       </c>
       <c r="D3" t="n">
         <v>53.4</v>
       </c>
       <c r="E3" t="n">
-        <v>51.14278053930072</v>
+        <v>51.44188822104741</v>
       </c>
       <c r="F3" t="n">
         <v>0.4625954512963821</v>
@@ -570,13 +570,13 @@
         <v>0.1990920823252753</v>
       </c>
       <c r="J3" t="n">
-        <v>3.765401765729343</v>
+        <v>3.266442487466133</v>
       </c>
       <c r="K3" t="n">
-        <v>8.981039075856337</v>
+        <v>8.482079797593117</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06697980595546811</v>
+        <v>0.05810420709058126</v>
       </c>
       <c r="M3" t="n">
         <v>1.425545668357698</v>
@@ -631,13 +631,13 @@
         <v>22.3</v>
       </c>
       <c r="C5" t="n">
-        <v>26.98597520457678</v>
+        <v>27.34066685158967</v>
       </c>
       <c r="D5" t="n">
         <v>48.5</v>
       </c>
       <c r="E5" t="n">
-        <v>44.40466187018183</v>
+        <v>44.09467682695727</v>
       </c>
       <c r="F5" t="n">
         <v>0.3283317029368315</v>
@@ -652,13 +652,13 @@
         <v>0.2301223609639123</v>
       </c>
       <c r="J5" t="n">
-        <v>6.408407361428448</v>
+        <v>6.89347364166283</v>
       </c>
       <c r="K5" t="n">
-        <v>16.9787461343668</v>
+        <v>17.46381241460116</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1788540154418617</v>
+        <v>0.1923918645644912</v>
       </c>
       <c r="M5" t="n">
         <v>1.029445018097681</v>
@@ -709,13 +709,13 @@
         <v>13.8</v>
       </c>
       <c r="C7" t="n">
-        <v>15.94532557498224</v>
+        <v>15.65011599343521</v>
       </c>
       <c r="D7" t="n">
         <v>53.2</v>
       </c>
       <c r="E7" t="n">
-        <v>50.6649749504287</v>
+        <v>51.01380950161395</v>
       </c>
       <c r="F7" t="n">
         <v>0.5122268947311625</v>
@@ -730,13 +730,13 @@
         <v>0.2344420469353158</v>
       </c>
       <c r="J7" t="n">
-        <v>4.591240714695243</v>
+        <v>3.95945863650039</v>
       </c>
       <c r="K7" t="n">
-        <v>4.114704401263855</v>
+        <v>3.48292232306899</v>
       </c>
       <c r="L7" t="n">
-        <v>0.06434073729876401</v>
+        <v>0.05548706848695559</v>
       </c>
       <c r="M7" t="n">
         <v>1.425545668357698</v>
@@ -787,13 +787,13 @@
         <v>19.6</v>
       </c>
       <c r="C9" t="n">
-        <v>26.94730687976645</v>
+        <v>28.60413935827131</v>
       </c>
       <c r="D9" t="n">
         <v>57.1</v>
       </c>
       <c r="E9" t="n">
-        <v>48.74055637322096</v>
+        <v>46.85548502262586</v>
       </c>
       <c r="F9" t="n">
         <v>0.3529410102843453</v>
@@ -808,13 +808,13 @@
         <v>0.3772413444220002</v>
       </c>
       <c r="J9" t="n">
-        <v>10.8114632522995</v>
+        <v>13.24946996002272</v>
       </c>
       <c r="K9" t="n">
-        <v>12.39248473332703</v>
+        <v>14.83049144105026</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2229184967141078</v>
+        <v>0.2731870660633103</v>
       </c>
       <c r="M9" t="n">
         <v>1.139860950012945</v>
@@ -865,13 +865,13 @@
         <v>19.3</v>
       </c>
       <c r="C11" t="n">
-        <v>23.42958239866205</v>
+        <v>23.27218814956835</v>
       </c>
       <c r="D11" t="n">
         <v>54.3</v>
       </c>
       <c r="E11" t="n">
-        <v>50.0771541796159</v>
+        <v>50.23810305598489</v>
       </c>
       <c r="F11" t="n">
         <v>0.4272409259282123</v>
@@ -886,13 +886,13 @@
         <v>0.2505890205775129</v>
       </c>
       <c r="J11" t="n">
-        <v>7.356644079823738</v>
+        <v>7.076254113233275</v>
       </c>
       <c r="K11" t="n">
-        <v>11.69813807232767</v>
+        <v>11.41774810573721</v>
       </c>
       <c r="L11" t="n">
-        <v>0.12065273772526</v>
+        <v>0.1160541984004318</v>
       </c>
       <c r="M11" t="n">
         <v>1.053779595918506</v>
@@ -943,13 +943,13 @@
         <v>19.4</v>
       </c>
       <c r="C13" t="n">
-        <v>21.37528739764237</v>
+        <v>21.13686472804345</v>
       </c>
       <c r="D13" t="n">
         <v>52.5</v>
       </c>
       <c r="E13" t="n">
-        <v>49.89055784179267</v>
+        <v>50.2055247505404</v>
       </c>
       <c r="F13" t="n">
         <v>0.5646400387963519</v>
@@ -964,13 +964,13 @@
         <v>0.2416288137300665</v>
       </c>
       <c r="J13" t="n">
-        <v>4.650366565726951</v>
+        <v>4.089054418169299</v>
       </c>
       <c r="K13" t="n">
-        <v>10.62707407716446</v>
+        <v>10.06576192960679</v>
       </c>
       <c r="L13" t="n">
-        <v>0.07883511051985899</v>
+        <v>0.06931949394137761</v>
       </c>
       <c r="M13" t="n">
         <v>1.065479746340009</v>
@@ -1021,13 +1021,13 @@
         <v>19</v>
       </c>
       <c r="C15" t="n">
-        <v>23.89277036410919</v>
+        <v>24.07484231022341</v>
       </c>
       <c r="D15" t="n">
         <v>52.7</v>
       </c>
       <c r="E15" t="n">
-        <v>47.27272126787535</v>
+        <v>47.07075895872819</v>
       </c>
       <c r="F15" t="n">
         <v>0.4895322440677268</v>
@@ -1042,13 +1042,13 @@
         <v>0.2277025655631734</v>
       </c>
       <c r="J15" t="n">
-        <v>9.988115590210903</v>
+        <v>10.35979778826856</v>
       </c>
       <c r="K15" t="n">
-        <v>15.68470722848286</v>
+        <v>16.05638942654052</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1610468466505832</v>
+        <v>0.1670397935095492</v>
       </c>
       <c r="M15" t="n">
         <v>1.133911947036382</v>
@@ -1099,13 +1099,13 @@
         <v>19.4</v>
       </c>
       <c r="C17" t="n">
-        <v>21.97218868384397</v>
+        <v>21.73412847485885</v>
       </c>
       <c r="D17" t="n">
         <v>53.9</v>
       </c>
       <c r="E17" t="n">
-        <v>50.65033488554094</v>
+        <v>50.95109663025232</v>
       </c>
       <c r="F17" t="n">
         <v>0.5530268771173869</v>
@@ -1120,13 +1120,13 @@
         <v>0.2310132542974963</v>
       </c>
       <c r="J17" t="n">
-        <v>5.931086877533479</v>
+        <v>5.382155226273569</v>
       </c>
       <c r="K17" t="n">
-        <v>10.80600173934881</v>
+        <v>10.2570700880889</v>
       </c>
       <c r="L17" t="n">
-        <v>0.09419319172345118</v>
+        <v>0.08547545999268655</v>
       </c>
       <c r="M17" t="n">
         <v>1.165477079263988</v>
@@ -1177,13 +1177,13 @@
         <v>19.5</v>
       </c>
       <c r="C19" t="n">
-        <v>23.71988561846612</v>
+        <v>23.56091256588689</v>
       </c>
       <c r="D19" t="n">
         <v>55.2</v>
       </c>
       <c r="E19" t="n">
-        <v>50.88463160348964</v>
+        <v>51.0472017177115</v>
       </c>
       <c r="F19" t="n">
         <v>0.4272484139300451</v>
@@ -1198,13 +1198,13 @@
         <v>0.2504376036435707</v>
       </c>
       <c r="J19" t="n">
-        <v>7.517108741594547</v>
+        <v>7.23392151064403</v>
       </c>
       <c r="K19" t="n">
-        <v>11.25242405283061</v>
+        <v>10.9692368218801</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1208786665689175</v>
+        <v>0.1163248818568207</v>
       </c>
       <c r="M19" t="n">
         <v>1.053779595918506</v>
@@ -1255,13 +1255,13 @@
         <v>19.6</v>
       </c>
       <c r="C21" t="n">
-        <v>21.5967819753006</v>
+        <v>21.35620519400649</v>
       </c>
       <c r="D21" t="n">
         <v>53</v>
       </c>
       <c r="E21" t="n">
-        <v>50.36216148251362</v>
+        <v>50.67997419715162</v>
       </c>
       <c r="F21" t="n">
         <v>0.5646490850174007</v>
@@ -1276,13 +1276,13 @@
         <v>0.2415674642805608</v>
       </c>
       <c r="J21" t="n">
-        <v>4.700709887056154</v>
+        <v>4.13435779232877</v>
       </c>
       <c r="K21" t="n">
-        <v>10.46698966472717</v>
+        <v>9.900637569999777</v>
       </c>
       <c r="L21" t="n">
-        <v>0.07897720112234675</v>
+        <v>0.06946185038468218</v>
       </c>
       <c r="M21" t="n">
         <v>1.065479746340009</v>
@@ -1333,13 +1333,13 @@
         <v>19.4</v>
       </c>
       <c r="C23" t="n">
-        <v>24.29567813762827</v>
+        <v>24.47772143117122</v>
       </c>
       <c r="D23" t="n">
         <v>53.2</v>
       </c>
       <c r="E23" t="n">
-        <v>47.74655639160758</v>
+        <v>47.54377287363239</v>
       </c>
       <c r="F23" t="n">
         <v>0.4916301431619964</v>
@@ -1354,13 +1354,13 @@
         <v>0.2276556510406937</v>
       </c>
       <c r="J23" t="n">
-        <v>10.03544382599394</v>
+        <v>10.40860668410908</v>
       </c>
       <c r="K23" t="n">
-        <v>15.67717703278951</v>
+        <v>16.05033989090465</v>
       </c>
       <c r="L23" t="n">
-        <v>0.161344485455397</v>
+        <v>0.1673439978215268</v>
       </c>
       <c r="M23" t="n">
         <v>1.137868529966938</v>
@@ -1411,13 +1411,13 @@
         <v>19.6</v>
       </c>
       <c r="C25" t="n">
-        <v>26.9354353457864</v>
+        <v>28.52183062316329</v>
       </c>
       <c r="D25" t="n">
         <v>53.5</v>
       </c>
       <c r="E25" t="n">
-        <v>46.74949316653841</v>
+        <v>45.28959724275315</v>
       </c>
       <c r="F25" t="n">
         <v>0.3187337024673288</v>
@@ -1432,13 +1432,13 @@
         <v>0.3317619245497725</v>
       </c>
       <c r="J25" t="n">
-        <v>9.747832400092292</v>
+        <v>11.85594385567898</v>
       </c>
       <c r="K25" t="n">
-        <v>14.17510700736771</v>
+        <v>16.28321846295439</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2163845234745251</v>
+        <v>0.2631808443410998</v>
       </c>
       <c r="M25" t="n">
         <v>0.9124896181340059</v>
@@ -1489,13 +1489,13 @@
         <v>22.4</v>
       </c>
       <c r="C27" t="n">
-        <v>25.06871416763401</v>
+        <v>24.80689719284873</v>
       </c>
       <c r="D27" t="n">
         <v>48.4</v>
       </c>
       <c r="E27" t="n">
-        <v>46.59057222440372</v>
+        <v>46.76808801535823</v>
       </c>
       <c r="F27" t="n">
         <v>0.2836031534256562</v>
@@ -1510,13 +1510,13 @@
         <v>0.2239072422849196</v>
       </c>
       <c r="J27" t="n">
-        <v>3.152354427204517</v>
+        <v>2.843089422510003</v>
       </c>
       <c r="K27" t="n">
-        <v>14.67448734137286</v>
+        <v>14.36522233667836</v>
       </c>
       <c r="L27" t="n">
-        <v>0.1026428526013079</v>
+        <v>0.09257296895572051</v>
       </c>
       <c r="M27" t="n">
         <v>0.9400588003411773</v>
@@ -1567,13 +1567,13 @@
         <v>20.5</v>
       </c>
       <c r="C29" t="n">
-        <v>25.53496517065754</v>
+        <v>25.61434828676293</v>
       </c>
       <c r="D29" t="n">
         <v>52.5</v>
       </c>
       <c r="E29" t="n">
-        <v>48.32214681444501</v>
+        <v>48.2562772417153</v>
       </c>
       <c r="F29" t="n">
         <v>0.3425548907692655</v>
@@ -1588,13 +1588,13 @@
         <v>0.2293274777398061</v>
       </c>
       <c r="J29" t="n">
-        <v>7.188552255243843</v>
+        <v>7.301889618853286</v>
       </c>
       <c r="K29" t="n">
-        <v>13.99785775834865</v>
+        <v>14.11119512195808</v>
       </c>
       <c r="L29" t="n">
-        <v>0.1573426615830482</v>
+        <v>0.1598233839613417</v>
       </c>
       <c r="M29" t="n">
         <v>0.9595828882837655</v>
@@ -1645,13 +1645,13 @@
         <v>21.3</v>
       </c>
       <c r="C31" t="n">
-        <v>26.02249965530043</v>
+        <v>26.09736797026138</v>
       </c>
       <c r="D31" t="n">
         <v>51.3</v>
       </c>
       <c r="E31" t="n">
-        <v>47.3833780209536</v>
+        <v>47.32128571617574</v>
       </c>
       <c r="F31" t="n">
         <v>0.3425741853020743</v>
@@ -1666,13 +1666,13 @@
         <v>0.2295131958998223</v>
       </c>
       <c r="J31" t="n">
-        <v>6.740899666508297</v>
+        <v>6.847766757284231</v>
       </c>
       <c r="K31" t="n">
-        <v>15.15549692308483</v>
+        <v>15.26236401386077</v>
       </c>
       <c r="L31" t="n">
-        <v>0.157416655176681</v>
+        <v>0.1599122656753794</v>
       </c>
       <c r="M31" t="n">
         <v>0.9595828882837655</v>
@@ -1723,13 +1723,13 @@
         <v>21.8</v>
       </c>
       <c r="C33" t="n">
-        <v>27.91027709859562</v>
+        <v>29.23796291941996</v>
       </c>
       <c r="D33" t="n">
         <v>50</v>
       </c>
       <c r="E33" t="n">
-        <v>44.38046671508211</v>
+        <v>43.15941330921436</v>
       </c>
       <c r="F33" t="n">
         <v>0.3187828285729435</v>
@@ -1744,13 +1744,13 @@
         <v>0.3324081152451444</v>
       </c>
       <c r="J33" t="n">
-        <v>8.114655402898167</v>
+        <v>9.877867241814565</v>
       </c>
       <c r="K33" t="n">
-        <v>16.52992985375948</v>
+        <v>18.29314169267587</v>
       </c>
       <c r="L33" t="n">
-        <v>0.2166764928580008</v>
+        <v>0.2637575503340413</v>
       </c>
       <c r="M33" t="n">
         <v>0.9124896181340059</v>
